--- a/LR3/table_2_91.xlsx
+++ b/LR3/table_2_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565F137-A9A3-4FA0-B1B6-9249718F1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE945E-0BA3-4B47-A88A-8377D78F63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,6 @@
     <sheet name="График отпусков 2022 год" sheetId="1" r:id="rId1"/>
     <sheet name="Праздники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1591,15 +1585,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>51661</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>90407</xdr:rowOff>
+      <xdr:colOff>400373</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>149272</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23424</xdr:rowOff>
+      <xdr:colOff>497984</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1627,631 +1621,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="График отпусков 2016 год"/>
-      <sheetName val="Праздники"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Столбец1</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>Продолжи- тельность1, дней</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>Столбец2</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v>Продолжи- тельность2, дней</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>Столбец6</v>
-          </cell>
-          <cell r="N8" t="str">
-            <v>Продолжи- тельность3, дней</v>
-          </cell>
-          <cell r="P8" t="str">
-            <v>Столбец10</v>
-          </cell>
-          <cell r="R8" t="str">
-            <v>Продолжи- тельность4, дней</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Сотрудник 1</v>
-          </cell>
-          <cell r="D9">
-            <v>2</v>
-          </cell>
-          <cell r="H9">
-            <v>31</v>
-          </cell>
-          <cell r="L9">
-            <v>61</v>
-          </cell>
-          <cell r="P9">
-            <v>183</v>
-          </cell>
-          <cell r="AA9">
-            <v>17</v>
-          </cell>
-          <cell r="AB9">
-            <v>11</v>
-          </cell>
-          <cell r="AC9">
-            <v>6</v>
-          </cell>
-          <cell r="AD9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Сотрудник 2</v>
-          </cell>
-          <cell r="D10">
-            <v>-42369</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v/>
-          </cell>
-          <cell r="L10" t="str">
-            <v/>
-          </cell>
-          <cell r="P10" t="str">
-            <v/>
-          </cell>
-          <cell r="AA10" t="str">
-            <v/>
-          </cell>
-          <cell r="AB10" t="str">
-            <v/>
-          </cell>
-          <cell r="AC10" t="str">
-            <v/>
-          </cell>
-          <cell r="AD10" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Сотрудник 3</v>
-          </cell>
-          <cell r="D11">
-            <v>-42369</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v/>
-          </cell>
-          <cell r="L11" t="str">
-            <v/>
-          </cell>
-          <cell r="P11" t="str">
-            <v/>
-          </cell>
-          <cell r="AA11" t="str">
-            <v/>
-          </cell>
-          <cell r="AB11" t="str">
-            <v/>
-          </cell>
-          <cell r="AC11" t="str">
-            <v/>
-          </cell>
-          <cell r="AD11" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Сотрудник 4</v>
-          </cell>
-          <cell r="D12">
-            <v>-42369</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v/>
-          </cell>
-          <cell r="L12" t="str">
-            <v/>
-          </cell>
-          <cell r="P12" t="str">
-            <v/>
-          </cell>
-          <cell r="AA12" t="str">
-            <v/>
-          </cell>
-          <cell r="AB12" t="str">
-            <v/>
-          </cell>
-          <cell r="AC12" t="str">
-            <v/>
-          </cell>
-          <cell r="AD12" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Сотрудник 5</v>
-          </cell>
-          <cell r="D13">
-            <v>-42369</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v/>
-          </cell>
-          <cell r="L13" t="str">
-            <v/>
-          </cell>
-          <cell r="P13" t="str">
-            <v/>
-          </cell>
-          <cell r="AA13" t="str">
-            <v/>
-          </cell>
-          <cell r="AB13" t="str">
-            <v/>
-          </cell>
-          <cell r="AC13" t="str">
-            <v/>
-          </cell>
-          <cell r="AD13" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Сотрудник 6</v>
-          </cell>
-          <cell r="D14">
-            <v>-42369</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v/>
-          </cell>
-          <cell r="L14" t="str">
-            <v/>
-          </cell>
-          <cell r="P14" t="str">
-            <v/>
-          </cell>
-          <cell r="AA14" t="str">
-            <v/>
-          </cell>
-          <cell r="AB14" t="str">
-            <v/>
-          </cell>
-          <cell r="AC14" t="str">
-            <v/>
-          </cell>
-          <cell r="AD14" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Сотрудник 7</v>
-          </cell>
-          <cell r="D15">
-            <v>-42369</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v/>
-          </cell>
-          <cell r="L15" t="str">
-            <v/>
-          </cell>
-          <cell r="P15" t="str">
-            <v/>
-          </cell>
-          <cell r="AA15" t="str">
-            <v/>
-          </cell>
-          <cell r="AB15" t="str">
-            <v/>
-          </cell>
-          <cell r="AC15" t="str">
-            <v/>
-          </cell>
-          <cell r="AD15" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Сотрудник 8</v>
-          </cell>
-          <cell r="D16">
-            <v>-42369</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v/>
-          </cell>
-          <cell r="L16" t="str">
-            <v/>
-          </cell>
-          <cell r="P16" t="str">
-            <v/>
-          </cell>
-          <cell r="AA16" t="str">
-            <v/>
-          </cell>
-          <cell r="AB16" t="str">
-            <v/>
-          </cell>
-          <cell r="AC16" t="str">
-            <v/>
-          </cell>
-          <cell r="AD16" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>-42369</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v/>
-          </cell>
-          <cell r="L17" t="str">
-            <v/>
-          </cell>
-          <cell r="P17" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="График отпусков 2016 год"/>
-      <sheetName val="Праздники"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Столбец1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="График отпусков 2016 год"/>
-      <sheetName val="Праздники"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Столбец1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Сотрудник 1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Сотрудник 2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Сотрудник 3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Сотрудник 4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Сотрудник 5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Сотрудник 6</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Сотрудник 7</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Сотрудник 8</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Таблица отпусков 2022"/>
-      <sheetName val="Праздники"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>Столбец1</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Продолжительность1, дней</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>Столбец2</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>Продолжительность2, дней</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Столбец3</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>Продолжительность3, дней</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>Столбец4</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>Продолжительность4, дней</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>5</v>
-          </cell>
-          <cell r="F4">
-            <v>7</v>
-          </cell>
-          <cell r="H4">
-            <v>20</v>
-          </cell>
-          <cell r="J4">
-            <v>8</v>
-          </cell>
-          <cell r="L4">
-            <v>126</v>
-          </cell>
-          <cell r="N4">
-            <v>5</v>
-          </cell>
-          <cell r="P4">
-            <v>140</v>
-          </cell>
-          <cell r="R4">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>6</v>
-          </cell>
-          <cell r="F5">
-            <v>10</v>
-          </cell>
-          <cell r="H5">
-            <v>59</v>
-          </cell>
-          <cell r="J5">
-            <v>5</v>
-          </cell>
-          <cell r="L5">
-            <v>106</v>
-          </cell>
-          <cell r="N5">
-            <v>7</v>
-          </cell>
-          <cell r="P5">
-            <v>119</v>
-          </cell>
-          <cell r="R5">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>33</v>
-          </cell>
-          <cell r="F6">
-            <v>5</v>
-          </cell>
-          <cell r="H6">
-            <v>38</v>
-          </cell>
-          <cell r="J6">
-            <v>7</v>
-          </cell>
-          <cell r="L6">
-            <v>104</v>
-          </cell>
-          <cell r="N6">
-            <v>10</v>
-          </cell>
-          <cell r="P6">
-            <v>116</v>
-          </cell>
-          <cell r="R6">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>34</v>
-          </cell>
-          <cell r="F7">
-            <v>7</v>
-          </cell>
-          <cell r="H7">
-            <v>36</v>
-          </cell>
-          <cell r="J7">
-            <v>5</v>
-          </cell>
-          <cell r="L7">
-            <v>106</v>
-          </cell>
-          <cell r="N7">
-            <v>7</v>
-          </cell>
-          <cell r="P7">
-            <v>119</v>
-          </cell>
-          <cell r="R7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>35</v>
-          </cell>
-          <cell r="F8">
-            <v>10</v>
-          </cell>
-          <cell r="H8">
-            <v>33</v>
-          </cell>
-          <cell r="J8">
-            <v>5</v>
-          </cell>
-          <cell r="L8">
-            <v>106</v>
-          </cell>
-          <cell r="N8">
-            <v>5</v>
-          </cell>
-          <cell r="P8">
-            <v>121</v>
-          </cell>
-          <cell r="R8">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>36</v>
-          </cell>
-          <cell r="F9">
-            <v>10</v>
-          </cell>
-          <cell r="H9">
-            <v>33</v>
-          </cell>
-          <cell r="J9">
-            <v>5</v>
-          </cell>
-          <cell r="L9">
-            <v>106</v>
-          </cell>
-          <cell r="N9">
-            <v>7</v>
-          </cell>
-          <cell r="P9">
-            <v>119</v>
-          </cell>
-          <cell r="R9">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>37</v>
-          </cell>
-          <cell r="F10">
-            <v>10</v>
-          </cell>
-          <cell r="H10">
-            <v>33</v>
-          </cell>
-          <cell r="J10">
-            <v>10</v>
-          </cell>
-          <cell r="L10">
-            <v>101</v>
-          </cell>
-          <cell r="N10">
-            <v>5</v>
-          </cell>
-          <cell r="P10">
-            <v>121</v>
-          </cell>
-          <cell r="R10">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>38</v>
-          </cell>
-          <cell r="F11">
-            <v>5</v>
-          </cell>
-          <cell r="H11">
-            <v>38</v>
-          </cell>
-          <cell r="J11">
-            <v>5</v>
-          </cell>
-          <cell r="L11">
-            <v>106</v>
-          </cell>
-          <cell r="N11">
-            <v>7</v>
-          </cell>
-          <cell r="P11">
-            <v>119</v>
-          </cell>
-          <cell r="R11">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2520,7 +1889,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LR3/table_2_91.xlsx
+++ b/LR3/table_2_91.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE945E-0BA3-4B47-A88A-8377D78F63DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDD629A-84A3-4671-9D52-73595DE4335F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="График отпусков 2022 год" sheetId="1" r:id="rId1"/>
     <sheet name="Праздники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -448,9 +440,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +451,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +578,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -623,11 +615,32 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'График отпусков 2022 год'!$F$3</c:f>
+              <c:f>'График отпусков 2022 год'!$E$4:$E$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Продолжительность1, дней</c:v>
+                  <c:v>09.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>05.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>06.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>07.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>08.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>09.01.2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -706,25 +719,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>25</c:v>
@@ -821,25 +834,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>23</c:v>
@@ -858,11 +871,32 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'График отпусков 2022 год'!$J$3</c:f>
+              <c:f>'График отпусков 2022 год'!$J$4:$J$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Продолжительность2, дней</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -941,19 +975,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12</c:v>
@@ -962,7 +996,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,19 +1090,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>133</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>126</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>134</c:v>
@@ -1077,7 +1111,7 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,11 +1127,32 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'График отпусков 2022 год'!$N$3</c:f>
+              <c:f>'График отпусков 2022 год'!$N$4:$N$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Продолжительность3, дней</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,11 +1383,32 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'График отпусков 2022 год'!$R$3</c:f>
+              <c:f>'График отпусков 2022 год'!$R$4:$R$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Продолжительность4, дней</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1569,7 +1645,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1590,10 +1666,10 @@
       <xdr:rowOff>103322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>497984</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>36339</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1888,108 +1964,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" customWidth="1"/>
-    <col min="23" max="23" width="3.21875" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" customWidth="1"/>
     <col min="25" max="25" width="3" customWidth="1"/>
-    <col min="26" max="26" width="3.77734375" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44562</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-    </row>
-    <row r="3" spans="1:32" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+    </row>
+    <row r="3" spans="1:32" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2056,26 +2132,26 @@
       <c r="V3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="23" t="s">
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AD3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-    </row>
-    <row r="4" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2086,21 +2162,21 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D11" si="1">IF(MONTH(E4)&gt;2,E4-C4+2,E4-C4+1)</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44570</v>
+      </c>
+      <c r="F4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
-        <v>44563</v>
-      </c>
-      <c r="F4" s="12">
-        <v>12</v>
-      </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G11" si="2">E4+F4-1</f>
-        <v>44574</v>
+        <f>WORKDAY.INTL(E4-1,F4,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44571</v>
       </c>
       <c r="H4" s="12">
         <f>IF(AND(I4-$C4&gt;0,'График отпусков 2022 год'!$F4&gt;0),I4-$C4-D4-('График отпусков 2022 год'!$G4-'График отпусков 2022 год'!$E4),"")</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I4" s="11">
         <v>44611</v>
@@ -2109,12 +2185,12 @@
         <v>10</v>
       </c>
       <c r="K4" s="11">
-        <f t="shared" ref="K4:K11" si="3">I4+J4-1</f>
-        <v>44620</v>
+        <f>WORKDAY.INTL(I4-1,J4,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44621</v>
       </c>
       <c r="L4" s="12">
         <f>IF(AND(M4-$C4&gt;0,'График отпусков 2022 год'!$F4&gt;0,'График отпусков 2022 год'!$J4&gt;0),M4-$C4-$D4-('График отпусков 2022 год'!$G4-'График отпусков 2022 год'!$E4)-$H4-('График отпусков 2022 год'!$K4-'График отпусков 2022 год'!$I4)-1,"")</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M4" s="11">
         <v>44757</v>
@@ -2123,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" ref="O4:O11" si="4">M4+N4-1</f>
+        <f>WORKDAY.INTL(M4-1,N4,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44761</v>
       </c>
       <c r="P4" s="12">
@@ -2137,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="13">
-        <f t="shared" ref="S4:S11" si="5">Q4+R4-1</f>
+        <f>WORKDAY.INTL(Q4-1,R4,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44875</v>
       </c>
       <c r="T4" s="15">
@@ -2145,36 +2221,36 @@
       </c>
       <c r="U4" s="16">
         <f>F4+J4+R4+R4</f>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="V4" s="18">
-        <f t="shared" ref="V4:V11" si="6">T4-U4</f>
-        <v>-4</v>
-      </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="25">
+        <f t="shared" ref="V4:V11" si="2">T4-U4</f>
+        <v>6</v>
+      </c>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="24">
         <f>IF('График отпусков 2022 год'!$G4-'График отпусков 2022 год'!$E4&gt;0,'График отпусков 2022 год'!$G4-'График отпусков 2022 год'!$E4+1,"")</f>
-        <v>12</v>
-      </c>
-      <c r="AB4" s="26">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="25">
         <f>IF('График отпусков 2022 год'!$K4-'График отпусков 2022 год'!$I4&gt;0,'График отпусков 2022 год'!$K4-'График отпусков 2022 год'!$I4+1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="AC4" s="26">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="25">
         <f>IF('График отпусков 2022 год'!$O4-'График отпусков 2022 год'!$M4&gt;0,'График отпусков 2022 год'!$O4-'График отпусков 2022 год'!$M4+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="25">
         <f>IF('График отпусков 2022 год'!$S4-'График отпусков 2022 год'!$Q4&gt;0,'График отпусков 2022 год'!$S4-'График отпусков 2022 год'!$Q4+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-    </row>
-    <row r="5" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2185,21 +2261,21 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="11">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="F5" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="2"/>
-        <v>44575</v>
+        <f>WORKDAY.INTL(E5-1,F5,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44589</v>
       </c>
       <c r="H5" s="12">
         <f>IF(AND(I5-$C5&gt;0,'График отпусков 2022 год'!$F5&gt;0),I5-$C5-D5-('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5),"")</f>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I5" s="11">
         <v>44612</v>
@@ -2208,12 +2284,12 @@
         <v>12</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" si="3"/>
-        <v>44623</v>
+        <f>WORKDAY.INTL(I5-1,J5,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44624</v>
       </c>
       <c r="L5" s="12">
         <f>IF(AND(M5-$C5&gt;0,'График отпусков 2022 год'!$F5&gt;0,'График отпусков 2022 год'!$J5&gt;0),M5-$C5-$D5-('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5)-$H5-('График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5)-1,"")</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" s="11">
         <v>44758</v>
@@ -2222,7 +2298,7 @@
         <v>5</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M5-1,N5,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44762</v>
       </c>
       <c r="P5" s="12">
@@ -2236,44 +2312,44 @@
         <v>6</v>
       </c>
       <c r="S5" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q5-1,R5,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44877</v>
       </c>
       <c r="T5" s="15">
         <v>28</v>
       </c>
       <c r="U5" s="16">
-        <f t="shared" ref="U5:U11" si="7">F5+J5+N5+R5</f>
-        <v>35</v>
+        <f t="shared" ref="U5:U11" si="3">F5+J5+N5+R5</f>
+        <v>43</v>
       </c>
       <c r="V5" s="19">
         <f>T5-U5</f>
-        <v>-7</v>
-      </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="25">
+        <v>-15</v>
+      </c>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="24">
         <f>IF('График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5&gt;0,'График отпусков 2022 год'!$G5-'График отпусков 2022 год'!$E5+1,"")</f>
-        <v>12</v>
-      </c>
-      <c r="AB5" s="26">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="25">
         <f>IF('График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5&gt;0,'График отпусков 2022 год'!$K5-'График отпусков 2022 год'!$I5+1,"")</f>
-        <v>12</v>
-      </c>
-      <c r="AC5" s="26">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="25">
         <f>IF('График отпусков 2022 год'!$O5-'График отпусков 2022 год'!$M5&gt;0,'График отпусков 2022 год'!$O5-'График отпусков 2022 год'!$M5+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AD5" s="25">
         <f>IF('График отпусков 2022 год'!$S5-'График отпусков 2022 год'!$Q5&gt;0,'График отпусков 2022 год'!$S5-'График отпусков 2022 год'!$Q5+1,"")</f>
         <v>6</v>
       </c>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-    </row>
-    <row r="6" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2293,12 +2369,12 @@
         <v>20</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="2"/>
-        <v>44584</v>
+        <f>WORKDAY.INTL(E6-1,F6,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44589</v>
       </c>
       <c r="H6" s="12">
         <f>IF(AND(I6-$C6&gt;0,'График отпусков 2022 год'!$F6&gt;0),I6-$C6-D6-('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6),"")</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I6" s="11">
         <v>44613</v>
@@ -2307,12 +2383,12 @@
         <v>14</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="3"/>
-        <v>44626</v>
+        <f>WORKDAY.INTL(I6-1,J6,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44627</v>
       </c>
       <c r="L6" s="12">
         <f>IF(AND(M6-$C6&gt;0,'График отпусков 2022 год'!$F6&gt;0,'График отпусков 2022 год'!$J6&gt;0),M6-$C6-$D6-('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6)-$H6-('График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6)-1,"")</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M6" s="11">
         <v>44759</v>
@@ -2321,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M6-1,N6,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44760</v>
       </c>
       <c r="P6" s="12">
@@ -2335,44 +2411,44 @@
         <v>2</v>
       </c>
       <c r="S6" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q6-1,R6,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44874</v>
       </c>
       <c r="T6" s="15">
         <v>28</v>
       </c>
       <c r="U6" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="V6" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="25">
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="24">
         <f>IF('График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6&gt;0,'График отпусков 2022 год'!$G6-'График отпусков 2022 год'!$E6+1,"")</f>
-        <v>20</v>
-      </c>
-      <c r="AB6" s="26">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="25">
         <f>IF('График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6&gt;0,'График отпусков 2022 год'!$K6-'График отпусков 2022 год'!$I6+1,"")</f>
-        <v>14</v>
-      </c>
-      <c r="AC6" s="26">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="25">
         <f>IF('График отпусков 2022 год'!$O6-'График отпусков 2022 год'!$M6&gt;0,'График отпусков 2022 год'!$O6-'График отпусков 2022 год'!$M6+1,"")</f>
         <v>2</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AD6" s="25">
         <f>IF('График отпусков 2022 год'!$S6-'График отпусков 2022 год'!$Q6&gt;0,'График отпусков 2022 год'!$S6-'График отпусков 2022 год'!$Q6+1,"")</f>
         <v>2</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2392,12 +2468,12 @@
         <v>25</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="2"/>
-        <v>44590</v>
+        <f>WORKDAY.INTL(E7-1,F7,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44594</v>
       </c>
       <c r="H7" s="12">
         <f>IF(AND(I7-$C7&gt;0,'График отпусков 2022 год'!$F7&gt;0),I7-$C7-D7-('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7),"")</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I7" s="11">
         <v>44614</v>
@@ -2406,12 +2482,12 @@
         <v>13</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" si="3"/>
-        <v>44626</v>
+        <f>WORKDAY.INTL(I7-1,J7,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44627</v>
       </c>
       <c r="L7" s="12">
         <f>IF(AND(M7-$C7&gt;0,'График отпусков 2022 год'!$F7&gt;0,'График отпусков 2022 год'!$J7&gt;0),M7-$C7-$D7-('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7)-$H7-('График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7)-1,"")</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M7" s="11">
         <v>44760</v>
@@ -2420,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M7-1,N7,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44763</v>
       </c>
       <c r="P7" s="12">
@@ -2434,44 +2510,44 @@
         <v>6</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q7-1,R7,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44879</v>
       </c>
       <c r="T7" s="15">
         <v>28</v>
       </c>
       <c r="U7" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="V7" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="25">
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="24">
         <f>IF('График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7&gt;0,'График отпусков 2022 год'!$G7-'График отпусков 2022 год'!$E7+1,"")</f>
-        <v>25</v>
-      </c>
-      <c r="AB7" s="26">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="25">
         <f>IF('График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7&gt;0,'График отпусков 2022 год'!$K7-'График отпусков 2022 год'!$I7+1,"")</f>
-        <v>13</v>
-      </c>
-      <c r="AC7" s="26">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="25">
         <f>IF('График отпусков 2022 год'!$O7-'График отпусков 2022 год'!$M7&gt;0,'График отпусков 2022 год'!$O7-'График отпусков 2022 год'!$M7+1,"")</f>
         <v>4</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AD7" s="25">
         <f>IF('График отпусков 2022 год'!$S7-'График отпусков 2022 год'!$Q7&gt;0,'График отпусков 2022 год'!$S7-'График отпусков 2022 год'!$Q7+1,"")</f>
         <v>6</v>
       </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-    </row>
-    <row r="8" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2491,12 +2567,12 @@
         <v>15</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="2"/>
-        <v>44581</v>
+        <f>WORKDAY.INTL(E8-1,F8,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44584</v>
       </c>
       <c r="H8" s="12">
         <f>IF(AND(I8-$C8&gt;0,'График отпусков 2022 год'!$F8&gt;0),I8-$C8-D8-('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8),"")</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I8" s="11">
         <v>44615</v>
@@ -2505,12 +2581,12 @@
         <v>20</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="3"/>
-        <v>44634</v>
+        <f>WORKDAY.INTL(I8-1,J8,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44636</v>
       </c>
       <c r="L8" s="12">
         <f>IF(AND(M8-$C8&gt;0,'График отпусков 2022 год'!$F8&gt;0,'График отпусков 2022 год'!$J8&gt;0),M8-$C8-$D8-('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8)-$H8-('График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8)-1,"")</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M8" s="11">
         <v>44761</v>
@@ -2519,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M8-1,N8,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44764</v>
       </c>
       <c r="P8" s="12">
@@ -2533,44 +2609,44 @@
         <v>6</v>
       </c>
       <c r="S8" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q8-1,R8,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44880</v>
       </c>
       <c r="T8" s="15">
         <v>28</v>
       </c>
       <c r="U8" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="V8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="25">
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="24">
         <f>IF('График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8&gt;0,'График отпусков 2022 год'!$G8-'График отпусков 2022 год'!$E8+1,"")</f>
-        <v>15</v>
-      </c>
-      <c r="AB8" s="26">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="25">
         <f>IF('График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8&gt;0,'График отпусков 2022 год'!$K8-'График отпусков 2022 год'!$I8+1,"")</f>
-        <v>20</v>
-      </c>
-      <c r="AC8" s="26">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="25">
         <f>IF('График отпусков 2022 год'!$O8-'График отпусков 2022 год'!$M8&gt;0,'График отпусков 2022 год'!$O8-'График отпусков 2022 год'!$M8+1,"")</f>
         <v>4</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AD8" s="25">
         <f>IF('График отпусков 2022 год'!$S8-'График отпусков 2022 год'!$Q8&gt;0,'График отпусков 2022 год'!$S8-'График отпусков 2022 год'!$Q8+1,"")</f>
         <v>6</v>
       </c>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-    </row>
-    <row r="9" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2590,12 +2666,12 @@
         <v>17</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="2"/>
-        <v>44584</v>
+        <f>WORKDAY.INTL(E9-1,F9,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44586</v>
       </c>
       <c r="H9" s="12">
         <f>IF(AND(I9-$C9&gt;0,'График отпусков 2022 год'!$F9&gt;0),I9-$C9-D9-('График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9),"")</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I9" s="11">
         <v>44616</v>
@@ -2604,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="3"/>
+        <f>WORKDAY.INTL(I9-1,J9,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44627</v>
       </c>
       <c r="L9" s="12">
@@ -2618,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M9-1,N9,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44766</v>
       </c>
       <c r="P9" s="12">
@@ -2632,44 +2708,44 @@
         <v>5</v>
       </c>
       <c r="S9" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q9-1,R9,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44880</v>
       </c>
       <c r="T9" s="15">
         <v>28</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="V9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-11</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="25">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="24">
         <f>IF('График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9&gt;0,'График отпусков 2022 год'!$G9-'График отпусков 2022 год'!$E9+1,"")</f>
-        <v>17</v>
-      </c>
-      <c r="AB9" s="26">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="25">
         <f>IF('График отпусков 2022 год'!$K9-'График отпусков 2022 год'!$I9&gt;0,'График отпусков 2022 год'!$K9-'График отпусков 2022 год'!$I9+1,"")</f>
         <v>12</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC9" s="25">
         <f>IF('График отпусков 2022 год'!$O9-'График отпусков 2022 год'!$M9&gt;0,'График отпусков 2022 год'!$O9-'График отпусков 2022 год'!$M9+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AD9" s="25">
         <f>IF('График отпусков 2022 год'!$S9-'График отпусков 2022 год'!$Q9&gt;0,'График отпусков 2022 год'!$S9-'График отпусков 2022 год'!$Q9+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-    </row>
-    <row r="10" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2689,12 +2765,12 @@
         <v>20</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="2"/>
-        <v>44588</v>
+        <f>WORKDAY.INTL(E10-1,F10,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44589</v>
       </c>
       <c r="H10" s="12">
         <f>IF(AND(I10-$C10&gt;0,'График отпусков 2022 год'!$F10&gt;0),I10-$C10-D10-('График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10),"")</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="11">
         <v>44617</v>
@@ -2703,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="3"/>
+        <f>WORKDAY.INTL(I10-1,J10,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44627</v>
       </c>
       <c r="L10" s="12">
@@ -2717,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M10-1,N10,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44768</v>
       </c>
       <c r="P10" s="12">
@@ -2731,44 +2807,44 @@
         <v>5</v>
       </c>
       <c r="S10" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q10-1,R10,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44881</v>
       </c>
       <c r="T10" s="15">
         <v>28</v>
       </c>
       <c r="U10" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="V10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="25">
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="24">
         <f>IF('График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10&gt;0,'График отпусков 2022 год'!$G10-'График отпусков 2022 год'!$E10+1,"")</f>
-        <v>20</v>
-      </c>
-      <c r="AB10" s="26">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="25">
         <f>IF('График отпусков 2022 год'!$K10-'График отпусков 2022 год'!$I10&gt;0,'График отпусков 2022 год'!$K10-'График отпусков 2022 год'!$I10+1,"")</f>
         <v>11</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="25">
         <f>IF('График отпусков 2022 год'!$O10-'График отпусков 2022 год'!$M10&gt;0,'График отпусков 2022 год'!$O10-'График отпусков 2022 год'!$M10+1,"")</f>
         <v>6</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AD10" s="25">
         <f>IF('График отпусков 2022 год'!$S10-'График отпусков 2022 год'!$Q10&gt;0,'График отпусков 2022 год'!$S10-'График отпусков 2022 год'!$Q10+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-    </row>
-    <row r="11" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -2788,7 +2864,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="2"/>
+        <f>WORKDAY.INTL(E11-1,F11,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44594</v>
       </c>
       <c r="H11" s="12">
@@ -2802,12 +2878,12 @@
         <v>13</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" si="3"/>
-        <v>44630</v>
+        <f>WORKDAY.INTL(I11-1,J11,"0000000",Праздники!$A$2:$A$15)</f>
+        <v>44631</v>
       </c>
       <c r="L11" s="12">
         <f>IF(AND(M11-$C11&gt;0,'График отпусков 2022 год'!$F11&gt;0,'График отпусков 2022 год'!$J11&gt;0),M11-$C11-$D11-('График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11)-$H11-('График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11)-1,"")</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M11" s="11">
         <v>44764</v>
@@ -2816,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="4"/>
+        <f>WORKDAY.INTL(M11-1,N11,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44768</v>
       </c>
       <c r="P11" s="12">
@@ -2830,756 +2906,756 @@
         <v>4</v>
       </c>
       <c r="S11" s="13">
-        <f t="shared" si="5"/>
+        <f>WORKDAY.INTL(Q11-1,R11,"0000000",Праздники!$A$2:$A$15)</f>
         <v>44881</v>
       </c>
       <c r="T11" s="15">
         <v>28</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="V11" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>-19</v>
       </c>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="25">
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="24">
         <f>IF('График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11&gt;0,'График отпусков 2022 год'!$G11-'График отпусков 2022 год'!$E11+1,"")</f>
         <v>25</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AB11" s="25">
         <f>IF('График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11&gt;0,'График отпусков 2022 год'!$K11-'График отпусков 2022 год'!$I11+1,"")</f>
-        <v>13</v>
-      </c>
-      <c r="AC11" s="26">
+        <v>14</v>
+      </c>
+      <c r="AC11" s="25">
         <f>IF('График отпусков 2022 год'!$O11-'График отпусков 2022 год'!$M11&gt;0,'График отпусков 2022 год'!$O11-'График отпусков 2022 год'!$M11+1,"")</f>
         <v>5</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AD11" s="25">
         <f>IF('График отпусков 2022 год'!$S11-'График отпусков 2022 год'!$Q11&gt;0,'График отпусков 2022 год'!$S11-'График отпусков 2022 год'!$Q11+1,"")</f>
         <v>4</v>
       </c>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3590,92 +3666,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4F4108-53BC-4FD2-9713-B107796872BD}">
-  <dimension ref="C1:C16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="21">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
         <v>44562</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="21">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
         <v>44563</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="21">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>44564</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="21">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>44565</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="21">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>44566</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="21">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>44567</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="21">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>44568</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="21">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>44569</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="21">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>44615</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="21">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>44628</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="21">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>44682</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="21">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>44690</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="21">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>44724</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="21">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>44869</v>
       </c>
     </row>
